--- a/output/fit_clients/fit_round_456.xlsx
+++ b/output/fit_clients/fit_round_456.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1830294733.4927</v>
+        <v>2500407680.784818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07048511485472356</v>
+        <v>0.09977185598894081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03077030447801908</v>
+        <v>0.03901998928527938</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>915147339.5899128</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2452837249.307479</v>
+        <v>2621480593.500375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.120409839256608</v>
+        <v>0.1433179958073313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04234223373067427</v>
+        <v>0.04175539912430681</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1226418734.856812</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4519115529.327101</v>
+        <v>4532103669.765924</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1415362453406629</v>
+        <v>0.1599987793853244</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03263564785328377</v>
+        <v>0.02936448026563592</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>165</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2259557815.649028</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3445471579.292499</v>
+        <v>3234506497.845573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0849356437412828</v>
+        <v>0.09242718741847854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04771641258774192</v>
+        <v>0.0331180620872496</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>169</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1722735830.076988</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2374321273.112615</v>
+        <v>2159879289.803148</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1245590612467538</v>
+        <v>0.1190171964348231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0504085685755647</v>
+        <v>0.035523454399233</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1187160625.659584</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1954364489.107843</v>
+        <v>2732885064.910987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06583629476147097</v>
+        <v>0.07621870404280816</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03104977312591699</v>
+        <v>0.04479439703892067</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>977182310.1046814</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3969141193.431031</v>
+        <v>2573732088.672517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1539248152475493</v>
+        <v>0.1605929117999109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02209144025888896</v>
+        <v>0.03229974036085417</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>145</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1984570753.322434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2291998918.689304</v>
+        <v>1669140010.047406</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1704077276334459</v>
+        <v>0.1522588254995919</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02988565811339345</v>
+        <v>0.02656515965569762</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1145999445.457612</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4914378614.111681</v>
+        <v>5349516277.356655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1510430333944149</v>
+        <v>0.1416355269975519</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03946063639142453</v>
+        <v>0.05417295715948991</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>192</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2457189399.738325</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3023939739.309567</v>
+        <v>3955883817.90738</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1477997499744989</v>
+        <v>0.134014570109541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04932799484543732</v>
+        <v>0.03028120184862784</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>189</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1511969814.271921</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2514954978.547084</v>
+        <v>2914669355.121</v>
       </c>
       <c r="F12" t="n">
-        <v>0.130986797785456</v>
+        <v>0.1598707475035577</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04861265360826276</v>
+        <v>0.04299347246869291</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>155</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1257477462.898599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5127115757.926581</v>
+        <v>3783707191.041461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08913316937756166</v>
+        <v>0.09540539976871246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02237941173728913</v>
+        <v>0.02995095877542982</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>153</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2563557876.664007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3266247819.819551</v>
+        <v>3550650873.606099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781971911981297</v>
+        <v>0.1803134452117114</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03093137794954948</v>
+        <v>0.03825487743644269</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1633123925.089113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1369981488.106233</v>
+        <v>1746089094.004315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08547995127323472</v>
+        <v>0.09068678762223048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0473626542382873</v>
+        <v>0.04213515764858403</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>684990800.0909145</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1963763072.185786</v>
+        <v>2113643862.86402</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07849603217293803</v>
+        <v>0.09566307060302691</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04673610251956191</v>
+        <v>0.04329296679407733</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>981881614.8375109</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4391315873.971692</v>
+        <v>4450279038.419792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1734937269930596</v>
+        <v>0.1422120544029272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449480552321793</v>
+        <v>0.04069446541009358</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2195657952.25485</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3874268407.727766</v>
+        <v>3802809502.966261</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1712420342894684</v>
+        <v>0.111638810955217</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02659411081540024</v>
+        <v>0.03354477570848435</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>149</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1937134170.896451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1282469886.380131</v>
+        <v>1043259011.28639</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1572591745975249</v>
+        <v>0.1654183079482786</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02385100892329512</v>
+        <v>0.01775495319090915</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>641235041.182484</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2001810233.421522</v>
+        <v>2430611212.067779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1611321333111884</v>
+        <v>0.1473406143779361</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02239725540319993</v>
+        <v>0.03137147859599791</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1000905142.867188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1706787233.943214</v>
+        <v>2174693917.942375</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025341681887102</v>
+        <v>0.06616571480408388</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04302248355413739</v>
+        <v>0.03619304890739913</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>853393680.9676026</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4015068024.142055</v>
+        <v>3806713790.305131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1369699003372794</v>
+        <v>0.1376280416401947</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03788513752289387</v>
+        <v>0.05577227322398159</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>129</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007534012.837987</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1504986013.559254</v>
+        <v>1254093082.983058</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1404057331140606</v>
+        <v>0.1702634166228479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04134969549715893</v>
+        <v>0.05233670400051967</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>752492991.9180603</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3198473048.11424</v>
+        <v>3116503217.015791</v>
       </c>
       <c r="F24" t="n">
-        <v>0.124915216227563</v>
+        <v>0.1395542041786875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03155576366211121</v>
+        <v>0.03266583303887878</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1599236545.971498</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1158744262.706696</v>
+        <v>978132693.7997496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100432047502097</v>
+        <v>0.1001330619584546</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03095880133562791</v>
+        <v>0.02861542011811718</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>579372158.8304421</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1345934027.62357</v>
+        <v>1325505910.573456</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07615728757013061</v>
+        <v>0.08225217334086683</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03652977397317583</v>
+        <v>0.02835449654296593</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>672967070.5531657</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4402202124.974227</v>
+        <v>3753730054.796527</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09886273682840437</v>
+        <v>0.1328971431306206</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01767104211925001</v>
+        <v>0.02441734506810109</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2201101052.669619</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3493363572.656254</v>
+        <v>2621022920.413945</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1139019758719248</v>
+        <v>0.1022828127357169</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03325148964890523</v>
+        <v>0.04621839138162269</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1746681840.403519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5324936004.945407</v>
+        <v>4220181900.86777</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1340211285502513</v>
+        <v>0.1051023608082398</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03912095495038161</v>
+        <v>0.03243495720609319</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>202</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2662467927.521624</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1457854661.116365</v>
+        <v>1780894406.763744</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1249261612776461</v>
+        <v>0.1338558404397408</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02718696512368655</v>
+        <v>0.02869492370821492</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>728927306.2645137</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1475250467.574916</v>
+        <v>1229193803.037626</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08066786126016254</v>
+        <v>0.09953177196918508</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04424437615946465</v>
+        <v>0.03834606835992625</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>737625120.4743652</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1334860922.613486</v>
+        <v>1568723493.37041</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07280437842413649</v>
+        <v>0.074534414082274</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02595981599940185</v>
+        <v>0.0360337207834518</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>667430495.4855747</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2353379098.018868</v>
+        <v>1893848347.674653</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1589555653517309</v>
+        <v>0.1918491663708742</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04775475481023978</v>
+        <v>0.03942784271708196</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1176689599.746368</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1525915294.690974</v>
+        <v>1075206986.663973</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006873497128943</v>
+        <v>0.1113903249283227</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02256802683612226</v>
+        <v>0.02489209022437183</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>762957598.9555141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1213802556.385622</v>
+        <v>950845463.8639972</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1142684051543005</v>
+        <v>0.116340130260736</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03563144274815977</v>
+        <v>0.04067812406726754</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>606901249.9125096</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2699750930.672525</v>
+        <v>3254794990.401799</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1137790366809674</v>
+        <v>0.119042683277059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02241735656215624</v>
+        <v>0.02725676547896284</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1349875471.346463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2947555594.995217</v>
+        <v>1903558739.6752</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09592801457490055</v>
+        <v>0.1019373382422068</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02646223452996495</v>
+        <v>0.04148484230846339</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>121</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1473777955.122623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2107145361.386552</v>
+        <v>1821007746.281975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1212502892101522</v>
+        <v>0.1055875103202452</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03043282797830662</v>
+        <v>0.02995168234066151</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1053572644.197624</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1742112882.555314</v>
+        <v>1871169130.200958</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1889169262632948</v>
+        <v>0.1633110517444544</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02182367381209982</v>
+        <v>0.02246678770199886</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>871056474.9740371</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1645729745.319739</v>
+        <v>1466559462.899419</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625048494125912</v>
+        <v>0.09915086072742414</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05690388993459997</v>
+        <v>0.05221689260355829</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822864802.3936604</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2148935890.887393</v>
+        <v>2938444761.265885</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1041566983716279</v>
+        <v>0.1344646249463248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03620168749434615</v>
+        <v>0.03074117429671932</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1074468005.111987</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3912131832.94409</v>
+        <v>3295652487.332525</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1210117218062594</v>
+        <v>0.0916244110214782</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04382968485877493</v>
+        <v>0.03005501843550326</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>149</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1956065939.719415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2466705685.749222</v>
+        <v>2156679746.915532</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291854478185161</v>
+        <v>0.168295644511851</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02037211332334677</v>
+        <v>0.02442498366932055</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>159</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1233352894.893712</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1796962110.039291</v>
+        <v>2016033736.788929</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07291026276846141</v>
+        <v>0.07654212498722457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03087963023173628</v>
+        <v>0.02952734386610945</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>898481120.8576194</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1988760600.630361</v>
+        <v>2142649442.021127</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1778622581099565</v>
+        <v>0.1725165224716598</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03850218446636416</v>
+        <v>0.05098397881674235</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>994380290.0427058</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4417380629.777432</v>
+        <v>4471042049.028842</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1645346161053391</v>
+        <v>0.1732026929524284</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05085091776069285</v>
+        <v>0.04753102134532899</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>162</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2208690308.334648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4895525350.610092</v>
+        <v>4567775621.630507</v>
       </c>
       <c r="F47" t="n">
-        <v>0.139975893581046</v>
+        <v>0.1683920252106419</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04511982593968469</v>
+        <v>0.04779645425962623</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2447762725.208556</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3107160152.464946</v>
+        <v>3594302758.715145</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07596161499896815</v>
+        <v>0.0781152766153447</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02479498042447466</v>
+        <v>0.03335006936365882</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1553580162.492086</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1439311942.85526</v>
+        <v>1847512564.326031</v>
       </c>
       <c r="F49" t="n">
-        <v>0.135052191877314</v>
+        <v>0.1324403856528143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0330249697587146</v>
+        <v>0.03742655841697097</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>719656012.9161494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2577133290.895632</v>
+        <v>3546013220.60694</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1212452874020217</v>
+        <v>0.10910502439168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0488503499463671</v>
+        <v>0.0468295685007083</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1288566735.400212</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>989996740.1239431</v>
+        <v>1101134962.710726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1967422210915833</v>
+        <v>0.131956171581063</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03804273618764006</v>
+        <v>0.03389153017886922</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>494998455.6735314</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5247576932.273355</v>
+        <v>4115617510.781672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1176888960364171</v>
+        <v>0.09270146405869384</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05710572372186171</v>
+        <v>0.05373862986613537</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>188</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2623788449.210465</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2971888380.756121</v>
+        <v>2930203840.090642</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1591402572078674</v>
+        <v>0.1281183480924235</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02636447779781726</v>
+        <v>0.02577045451624748</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1485944224.774795</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4583641347.763735</v>
+        <v>3204207549.800965</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1350995578336963</v>
+        <v>0.1425031998119027</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03413384912588972</v>
+        <v>0.04569260251247729</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>148</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2291820783.807198</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3521260174.52189</v>
+        <v>3250693597.964557</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1522344069578727</v>
+        <v>0.1494671798220253</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02359809121030428</v>
+        <v>0.02531772815655579</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>124</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1760630041.041223</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1654340258.352717</v>
+        <v>1448621677.333293</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1032508693381876</v>
+        <v>0.1080959401155217</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04898680913036338</v>
+        <v>0.03662510102298124</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>827170148.5584036</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3268771664.377326</v>
+        <v>3560056200.085007</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1239771192257126</v>
+        <v>0.1354763821791218</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0218628532016921</v>
+        <v>0.02614122924359151</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>145</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1634385859.179558</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1429573481.197758</v>
+        <v>1274655320.342547</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1384362426572817</v>
+        <v>0.1875547593615002</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03083770853958081</v>
+        <v>0.03347025459047812</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>714786778.1759816</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4210849764.53618</v>
+        <v>5074378192.644215</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1191409458971866</v>
+        <v>0.09032964271789364</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03291593338763493</v>
+        <v>0.04421786977609746</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2105424848.073191</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3680771284.223335</v>
+        <v>2812180854.373056</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1788852595737794</v>
+        <v>0.1363884207060478</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02614921154005639</v>
+        <v>0.03181798389164373</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1840385783.889602</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2340876057.115324</v>
+        <v>3069028221.570315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.178479281543795</v>
+        <v>0.1618591441809646</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03095025738654586</v>
+        <v>0.03139815570553069</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>157</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1170438071.203956</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1523729578.196118</v>
+        <v>1600707572.510451</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1267635031280668</v>
+        <v>0.1904536292495562</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03968167898098397</v>
+        <v>0.0363053998595056</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>761864775.7339272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5248803069.409927</v>
+        <v>4462664769.809993</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07791383216922637</v>
+        <v>0.1070182380389636</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03688042325503549</v>
+        <v>0.03742795195477873</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2624401541.414657</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4145655041.75104</v>
+        <v>3429501169.775502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.183983763944084</v>
+        <v>0.1697507511995952</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02535902250475787</v>
+        <v>0.02673695614215264</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>143</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2072827566.992747</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5028019386.985607</v>
+        <v>3643766023.31812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1544151269591736</v>
+        <v>0.1617882231257842</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02909127660988011</v>
+        <v>0.02971041489297474</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>163</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2514009650.754293</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3615783436.721015</v>
+        <v>4778964809.304158</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1522642833328022</v>
+        <v>0.1192408525587015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03079114123400186</v>
+        <v>0.03678769435966366</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1807891671.351299</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2241814371.641971</v>
+        <v>3446752754.823288</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08652034186328258</v>
+        <v>0.08122926472280612</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03177729091847575</v>
+        <v>0.04523753730298105</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>147</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1120907268.331181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4441562585.670372</v>
+        <v>3981501797.308601</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1459817682045556</v>
+        <v>0.1172702315527689</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03950934044602394</v>
+        <v>0.05082641560518383</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2220781315.39712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1821599988.871534</v>
+        <v>1707102383.991558</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1526436943686388</v>
+        <v>0.1761486966166842</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05293327500656986</v>
+        <v>0.03762165889306086</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>910799976.3441914</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3248911205.620931</v>
+        <v>3425368782.523639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0922316726089781</v>
+        <v>0.08111688600098282</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03408025525332212</v>
+        <v>0.03323741650671982</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>131</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1624455595.996739</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4833864938.650111</v>
+        <v>5245089254.116131</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1161042193947844</v>
+        <v>0.1615172981303298</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03007355677976284</v>
+        <v>0.0254685999001469</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>166</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2416932562.622889</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1940054998.361121</v>
+        <v>1703169897.148656</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06607063456035753</v>
+        <v>0.07029076858058227</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03882633162892229</v>
+        <v>0.03874757841058456</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>970027455.1849747</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2919881186.594056</v>
+        <v>3355845708.908741</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0806604140878163</v>
+        <v>0.0702841937049071</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03540636676942469</v>
+        <v>0.05171263431673562</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>173</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1459940596.639331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3635821395.731053</v>
+        <v>2810358254.687143</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1791326059247677</v>
+        <v>0.1202364216124525</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03131655117944281</v>
+        <v>0.02966253947797632</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>155</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1817910708.337227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1886022966.323992</v>
+        <v>1937174551.774442</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1542772063345925</v>
+        <v>0.1267107528855776</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02789845273021506</v>
+        <v>0.03354067490038638</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>943011458.0517063</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3319944273.912066</v>
+        <v>5013773806.911534</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09836337611711173</v>
+        <v>0.09648079490799957</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02669923355914915</v>
+        <v>0.02341485016375388</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1659972093.191348</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2250002158.142687</v>
+        <v>1465361533.897298</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1305924323980461</v>
+        <v>0.1505231990114808</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02536001734496399</v>
+        <v>0.02017526777757671</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1125001177.504377</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3196704271.797585</v>
+        <v>3385607385.874831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1154320409936194</v>
+        <v>0.1017312197716498</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05609050167320812</v>
+        <v>0.04607108612566143</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>159</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1598352159.136043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435583160.82312</v>
+        <v>1312836949.526897</v>
       </c>
       <c r="F79" t="n">
-        <v>0.106923511259554</v>
+        <v>0.1763256526174884</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03279167632957131</v>
+        <v>0.03746711671474662</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>717791603.3897508</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5312821945.060186</v>
+        <v>3439385223.668112</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1038126531041648</v>
+        <v>0.09749804198881402</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03586404308497563</v>
+        <v>0.03725815135588999</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>100</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2656411037.318797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5142148770.579051</v>
+        <v>3166580122.77702</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09845290981278279</v>
+        <v>0.09224290554163272</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02669223732981262</v>
+        <v>0.0235599943027755</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>106</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2571074390.934194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5479381855.375782</v>
+        <v>3498375385.479873</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1453096701715676</v>
+        <v>0.1468848821424</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0196703621423424</v>
+        <v>0.02296190930577077</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>159</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2739690884.918057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1713829999.772226</v>
+        <v>2239209703.902102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1230981239767932</v>
+        <v>0.1387113122951</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02893200797404126</v>
+        <v>0.04244807527443473</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>856914949.6275712</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1622861454.664426</v>
+        <v>1915829799.655655</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1040632041089135</v>
+        <v>0.1159051296961354</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03914789217358224</v>
+        <v>0.03279149922942329</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>811430787.5942326</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2713550890.657433</v>
+        <v>2464483421.935109</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1370176284986845</v>
+        <v>0.1491145899787809</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0389537807487484</v>
+        <v>0.05350107868346712</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>171</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1356775473.863745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2075473188.316821</v>
+        <v>2244165444.497591</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1318346208030625</v>
+        <v>0.1576854456723981</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02027657809821483</v>
+        <v>0.01902400535870539</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1037736632.305545</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479239301.308064</v>
+        <v>1177538080.162192</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1607037078855331</v>
+        <v>0.133529656555629</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03679949002618374</v>
+        <v>0.03892917809839676</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>739619777.8164035</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2925128607.631338</v>
+        <v>3222295372.714623</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1759165436272731</v>
+        <v>0.1489245990172722</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02420898051221979</v>
+        <v>0.02762942110460904</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>181</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1462564326.884032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2128071922.241408</v>
+        <v>3260513984.593989</v>
       </c>
       <c r="F89" t="n">
-        <v>0.124610130097219</v>
+        <v>0.1327162217939478</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03135256230436437</v>
+        <v>0.03998328934088497</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1064036063.158762</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1428355891.653457</v>
+        <v>2142217915.838608</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1366430402010922</v>
+        <v>0.13161725380853</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0480051585520019</v>
+        <v>0.03686335053212582</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>714177911.4654698</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1442082735.248332</v>
+        <v>1553660407.453146</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1872955085133809</v>
+        <v>0.1653862145777717</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05298076838555179</v>
+        <v>0.04986539596275194</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>721041414.2623692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2301565750.131162</v>
+        <v>1940673520.679325</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06969557945203132</v>
+        <v>0.0850112321981404</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03333138895147145</v>
+        <v>0.03789669447228127</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1150782844.093225</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3773249137.817461</v>
+        <v>4211770350.283483</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1223143501837908</v>
+        <v>0.09691996942769134</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04530375011953371</v>
+        <v>0.04533071231149535</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1886624584.224332</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1991666601.226921</v>
+        <v>1666398220.152574</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1315366253892893</v>
+        <v>0.1598016890744759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04047406176878612</v>
+        <v>0.03655026576710975</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>995833297.885509</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3185978638.063172</v>
+        <v>2322779414.788367</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1260997080757069</v>
+        <v>0.1296720043490583</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03603374720369647</v>
+        <v>0.0474611492113384</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>109</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1592989305.238816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1556877577.841766</v>
+        <v>2260740813.755378</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397492630910937</v>
+        <v>0.1368587600333266</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03765913986681377</v>
+        <v>0.03524223488654157</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>778438823.2142174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3825757640.119924</v>
+        <v>3460132606.62282</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373685221376046</v>
+        <v>0.1595959605150539</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02083124371166893</v>
+        <v>0.02272170958644822</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1912878862.441922</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3292186194.779216</v>
+        <v>3770159670.661084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1120460897906728</v>
+        <v>0.1177922853637912</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02816147138729819</v>
+        <v>0.03257995916394971</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1646093101.923166</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2746425439.390913</v>
+        <v>3084820830.887271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098757491021248</v>
+        <v>0.1455670499742249</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02388509681231693</v>
+        <v>0.02459245472464405</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>145</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1373212687.264817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4672548014.137012</v>
+        <v>4421834670.527619</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1776530078552646</v>
+        <v>0.1167963045070371</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02316698622173417</v>
+        <v>0.02388373366068017</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2336274131.463427</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2589808816.579078</v>
+        <v>2882970654.588339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1640502413331185</v>
+        <v>0.1629167876898714</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04186224226721455</v>
+        <v>0.05174705648113608</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>187</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1294904443.133158</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_456.xlsx
+++ b/output/fit_clients/fit_round_456.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2500407680.784818</v>
+        <v>2435779459.117801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09977185598894081</v>
+        <v>0.1014540739467799</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03901998928527938</v>
+        <v>0.04101152909447985</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2621480593.500375</v>
+        <v>2382042110.194664</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1433179958073313</v>
+        <v>0.1525506730976175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04175539912430681</v>
+        <v>0.03980559979737355</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4532103669.765924</v>
+        <v>4328756795.737414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1599987793853244</v>
+        <v>0.1569298196412643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02936448026563592</v>
+        <v>0.02688428533992673</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3234506497.845573</v>
+        <v>3769835777.821926</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09242718741847854</v>
+        <v>0.09969769033671068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0331180620872496</v>
+        <v>0.03995169376935188</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2159879289.803148</v>
+        <v>2508826929.877069</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1190171964348231</v>
+        <v>0.09903994093582894</v>
       </c>
       <c r="G6" t="n">
-        <v>0.035523454399233</v>
+        <v>0.05008142486843534</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2732885064.910987</v>
+        <v>2189221999.033592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07621870404280816</v>
+        <v>0.06310492832534913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04479439703892067</v>
+        <v>0.04871365452478334</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2573732088.672517</v>
+        <v>3892267301.265969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1605929117999109</v>
+        <v>0.1559091880215577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03229974036085417</v>
+        <v>0.02725494493654773</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1669140010.047406</v>
+        <v>2182878423.152871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1522588254995919</v>
+        <v>0.1980929490053734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02656515965569762</v>
+        <v>0.02380131901341322</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5349516277.356655</v>
+        <v>4996395577.754619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1416355269975519</v>
+        <v>0.2085760149216352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05417295715948991</v>
+        <v>0.04936521652831794</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3955883817.90738</v>
+        <v>4194770514.365073</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134014570109541</v>
+        <v>0.121317590729823</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03028120184862784</v>
+        <v>0.03836193002041536</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2914669355.121</v>
+        <v>3150917148.101184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1598707475035577</v>
+        <v>0.138375606005941</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04299347246869291</v>
+        <v>0.04199106949985698</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3783707191.041461</v>
+        <v>4805233640.161552</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09540539976871246</v>
+        <v>0.08107872094590972</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02995095877542982</v>
+        <v>0.02000911707879191</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3550650873.606099</v>
+        <v>2994713337.876529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1803134452117114</v>
+        <v>0.1785158979206</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03825487743644269</v>
+        <v>0.03933488706611421</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1746089094.004315</v>
+        <v>1828357186.070626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09068678762223048</v>
+        <v>0.07773111600285826</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04213515764858403</v>
+        <v>0.04487785832340459</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2113643862.86402</v>
+        <v>2711027227.599581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09566307060302691</v>
+        <v>0.09575819717778138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04329296679407733</v>
+        <v>0.04024065886805457</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4450279038.419792</v>
+        <v>3303830625.077661</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1422120544029272</v>
+        <v>0.1683672586657808</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04069446541009358</v>
+        <v>0.03655057390178727</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3802809502.966261</v>
+        <v>3526567778.744839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.111638810955217</v>
+        <v>0.1594861930473311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03354477570848435</v>
+        <v>0.03045133630457542</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1043259011.28639</v>
+        <v>866527918.7765392</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1654183079482786</v>
+        <v>0.1409418234042083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01775495319090915</v>
+        <v>0.01943913214402487</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2430611212.067779</v>
+        <v>2625984951.008487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1473406143779361</v>
+        <v>0.09779010243954958</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03137147859599791</v>
+        <v>0.01942268506172171</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2174693917.942375</v>
+        <v>2612715802.256702</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06616571480408388</v>
+        <v>0.08546065754181704</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03619304890739913</v>
+        <v>0.03699717917864644</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3806713790.305131</v>
+        <v>3371680570.663838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1376280416401947</v>
+        <v>0.1180574309200472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05577227322398159</v>
+        <v>0.04370996548216335</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1254093082.983058</v>
+        <v>1114096259.074546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1702634166228479</v>
+        <v>0.1496055565686322</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05233670400051967</v>
+        <v>0.04051520137571003</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3116503217.015791</v>
+        <v>2819628428.772292</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1395542041786875</v>
+        <v>0.1029167893274646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03266583303887878</v>
+        <v>0.02457731527362069</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>978132693.7997496</v>
+        <v>910971210.6960312</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001330619584546</v>
+        <v>0.1081365568603793</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02861542011811718</v>
+        <v>0.0225249748760476</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1325505910.573456</v>
+        <v>1401617503.600527</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08225217334086683</v>
+        <v>0.08820532249816954</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02835449654296593</v>
+        <v>0.03669412838338552</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3753730054.796527</v>
+        <v>3437660351.57188</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1328971431306206</v>
+        <v>0.1251522433556203</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02441734506810109</v>
+        <v>0.02201160231545772</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2621022920.413945</v>
+        <v>2933789722.025709</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1022828127357169</v>
+        <v>0.09500180637134675</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04621839138162269</v>
+        <v>0.03347297901777859</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4220181900.86777</v>
+        <v>4848074453.274601</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1051023608082398</v>
+        <v>0.09496762254909172</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03243495720609319</v>
+        <v>0.03289561143077211</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1780894406.763744</v>
+        <v>2192931659.959455</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1338558404397408</v>
+        <v>0.1290010197321708</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02869492370821492</v>
+        <v>0.02937961216236928</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1229193803.037626</v>
+        <v>1452406766.69326</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09953177196918508</v>
+        <v>0.09562688208493847</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03834606835992625</v>
+        <v>0.04472744558295921</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1568723493.37041</v>
+        <v>1361879318.002785</v>
       </c>
       <c r="F32" t="n">
-        <v>0.074534414082274</v>
+        <v>0.07329547611180594</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0360337207834518</v>
+        <v>0.03490203574336585</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1893848347.674653</v>
+        <v>2146097797.168468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1918491663708742</v>
+        <v>0.1995808875808454</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03942784271708196</v>
+        <v>0.047560186765558</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075206986.663973</v>
+        <v>999941441.1379058</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1113903249283227</v>
+        <v>0.09153088905131988</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02489209022437183</v>
+        <v>0.02651438795193006</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950845463.8639972</v>
+        <v>858733714.156924</v>
       </c>
       <c r="F35" t="n">
-        <v>0.116340130260736</v>
+        <v>0.09915437282118439</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04067812406726754</v>
+        <v>0.04400297246306706</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3254794990.401799</v>
+        <v>3210197551.268874</v>
       </c>
       <c r="F36" t="n">
-        <v>0.119042683277059</v>
+        <v>0.1321113815559434</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02725676547896284</v>
+        <v>0.02225067374251079</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1903558739.6752</v>
+        <v>1956594282.177907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1019373382422068</v>
+        <v>0.0944059090476107</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04148484230846339</v>
+        <v>0.02962731816975611</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1821007746.281975</v>
+        <v>1359899327.221155</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1055875103202452</v>
+        <v>0.09290330621975697</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02995168234066151</v>
+        <v>0.02563120597223079</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1871169130.200958</v>
+        <v>1923970079.589484</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1633110517444544</v>
+        <v>0.1521714888611757</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02246678770199886</v>
+        <v>0.02276226325466631</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1466559462.899419</v>
+        <v>1180182674.01823</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09915086072742414</v>
+        <v>0.1162071967223574</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05221689260355829</v>
+        <v>0.0488408885082446</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2938444761.265885</v>
+        <v>2083406101.464653</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1344646249463248</v>
+        <v>0.1307733841927769</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03074117429671932</v>
+        <v>0.03971820079002254</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3295652487.332525</v>
+        <v>4295056440.748631</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0916244110214782</v>
+        <v>0.116717462968359</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03005501843550326</v>
+        <v>0.04108611283282281</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2156679746.915532</v>
+        <v>2715246712.748078</v>
       </c>
       <c r="F43" t="n">
-        <v>0.168295644511851</v>
+        <v>0.1622186804870249</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02442498366932055</v>
+        <v>0.02565165385628119</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016033736.788929</v>
+        <v>1433715070.745326</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07654212498722457</v>
+        <v>0.07585767503172047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02952734386610945</v>
+        <v>0.02886776676358248</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2142649442.021127</v>
+        <v>1842412813.244822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1725165224716598</v>
+        <v>0.1889952484834925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05098397881674235</v>
+        <v>0.04853730794594577</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4471042049.028842</v>
+        <v>5302363575.647157</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1732026929524284</v>
+        <v>0.1740671580160507</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04753102134532899</v>
+        <v>0.05868068576431945</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4567775621.630507</v>
+        <v>4920876072.330379</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1683920252106419</v>
+        <v>0.1988654843195805</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04779645425962623</v>
+        <v>0.04465096286070339</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3594302758.715145</v>
+        <v>3253687602.556496</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0781152766153447</v>
+        <v>0.103715927629531</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03335006936365882</v>
+        <v>0.02940869788856581</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1847512564.326031</v>
+        <v>1688376499.468144</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1324403856528143</v>
+        <v>0.1555844613110757</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03742655841697097</v>
+        <v>0.04003847963147202</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3546013220.60694</v>
+        <v>3939725324.732858</v>
       </c>
       <c r="F50" t="n">
-        <v>0.10910502439168</v>
+        <v>0.1754329464349667</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0468295685007083</v>
+        <v>0.05139098820500632</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1101134962.710726</v>
+        <v>1194688631.068269</v>
       </c>
       <c r="F51" t="n">
-        <v>0.131956171581063</v>
+        <v>0.1433959370797018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03389153017886922</v>
+        <v>0.0541412649788304</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4115617510.781672</v>
+        <v>3206107861.801679</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09270146405869384</v>
+        <v>0.110752668849222</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05373862986613537</v>
+        <v>0.04279611166265129</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2930203840.090642</v>
+        <v>2816077192.899018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1281183480924235</v>
+        <v>0.1890780173566458</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02577045451624748</v>
+        <v>0.03405924096288977</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3204207549.800965</v>
+        <v>3975948105.835481</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1425031998119027</v>
+        <v>0.1212798701582279</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04569260251247729</v>
+        <v>0.04331236474692721</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3250693597.964557</v>
+        <v>3152886403.096658</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1494671798220253</v>
+        <v>0.1895412687131809</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02531772815655579</v>
+        <v>0.02308559326540926</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1448621677.333293</v>
+        <v>1689276513.026745</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1080959401155217</v>
+        <v>0.1354823285874166</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03662510102298124</v>
+        <v>0.05524291006050213</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3560056200.085007</v>
+        <v>3930596093.915098</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1354763821791218</v>
+        <v>0.1110601570550151</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02614122924359151</v>
+        <v>0.02176296548568847</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1274655320.342547</v>
+        <v>1797258546.240659</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1875547593615002</v>
+        <v>0.1516140102860373</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03347025459047812</v>
+        <v>0.02603631321072164</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5074378192.644215</v>
+        <v>4754137007.327508</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09032964271789364</v>
+        <v>0.09989825562640312</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04421786977609746</v>
+        <v>0.037128713796469</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2812180854.373056</v>
+        <v>2651490884.369843</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1363884207060478</v>
+        <v>0.150150979304407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03181798389164373</v>
+        <v>0.0280786988347317</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3069028221.570315</v>
+        <v>2695227475.661661</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1618591441809646</v>
+        <v>0.1266461074883553</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03139815570553069</v>
+        <v>0.02865034025941622</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1600707572.510451</v>
+        <v>1941564515.061045</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904536292495562</v>
+        <v>0.1344790878363415</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0363053998595056</v>
+        <v>0.04508969448114589</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4462664769.809993</v>
+        <v>3681385199.446134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1070182380389636</v>
+        <v>0.1015036368619282</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03742795195477873</v>
+        <v>0.03904430433474709</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3429501169.775502</v>
+        <v>4135334985.146399</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697507511995952</v>
+        <v>0.116932322387782</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02673695614215264</v>
+        <v>0.03268153706414737</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3643766023.31812</v>
+        <v>4886116591.906798</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1617882231257842</v>
+        <v>0.1244685678569985</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02971041489297474</v>
+        <v>0.0243058364661908</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4778964809.304158</v>
+        <v>5510007532.86776</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1192408525587015</v>
+        <v>0.1610140950936945</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03678769435966366</v>
+        <v>0.03845240279919086</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3446752754.823288</v>
+        <v>3328035205.91658</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08122926472280612</v>
+        <v>0.09639759723932564</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04523753730298105</v>
+        <v>0.04366523372852875</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3981501797.308601</v>
+        <v>4220967724.738159</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1172702315527689</v>
+        <v>0.1385495512126679</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05082641560518383</v>
+        <v>0.03758235583242961</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1707102383.991558</v>
+        <v>1511763694.891825</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1761486966166842</v>
+        <v>0.1605872063573402</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03762165889306086</v>
+        <v>0.05542757640919788</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3425368782.523639</v>
+        <v>2795285924.85941</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08111688600098282</v>
+        <v>0.07645068775628272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03323741650671982</v>
+        <v>0.03916572901780132</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5245089254.116131</v>
+        <v>4933218414.578756</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1615172981303298</v>
+        <v>0.1222268897583376</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0254685999001469</v>
+        <v>0.02342099468216586</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1703169897.148656</v>
+        <v>1818166746.392751</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07029076858058227</v>
+        <v>0.09153420829400745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03874757841058456</v>
+        <v>0.05225863118961187</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3355845708.908741</v>
+        <v>2741966189.377736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0702841937049071</v>
+        <v>0.1092091851899198</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05171263431673562</v>
+        <v>0.03822611145805112</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2810358254.687143</v>
+        <v>3202623275.118027</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1202364216124525</v>
+        <v>0.1178504582603177</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02966253947797632</v>
+        <v>0.02361697256853619</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1937174551.774442</v>
+        <v>2247965392.576332</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1267107528855776</v>
+        <v>0.1450702522484574</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03354067490038638</v>
+        <v>0.0352745547854286</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5013773806.911534</v>
+        <v>4012474001.051737</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09648079490799957</v>
+        <v>0.1192230689866076</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02341485016375388</v>
+        <v>0.02224886676406208</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1465361533.897298</v>
+        <v>2010068320.452141</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1505231990114808</v>
+        <v>0.1453690496824165</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02017526777757671</v>
+        <v>0.02587167738402833</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3385607385.874831</v>
+        <v>4788392633.100833</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017312197716498</v>
+        <v>0.1296579735664825</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04607108612566143</v>
+        <v>0.04702327697800652</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1312836949.526897</v>
+        <v>1871079721.165809</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763256526174884</v>
+        <v>0.1086793995440574</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03746711671474662</v>
+        <v>0.03776864221540636</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3439385223.668112</v>
+        <v>4727007600.663517</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09749804198881402</v>
+        <v>0.1021244260710789</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03725815135588999</v>
+        <v>0.02346768374152245</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3166580122.77702</v>
+        <v>3688907189.174457</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09224290554163272</v>
+        <v>0.0895100753467049</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0235599943027755</v>
+        <v>0.02725343958552074</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3498375385.479873</v>
+        <v>3608737864.84435</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1468848821424</v>
+        <v>0.1331010494869159</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02296190930577077</v>
+        <v>0.02022735433880344</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2239209703.902102</v>
+        <v>2374566400.485881</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1387113122951</v>
+        <v>0.1566365459635363</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04244807527443473</v>
+        <v>0.02947876984918823</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1915829799.655655</v>
+        <v>2115813020.111997</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1159051296961354</v>
+        <v>0.09591782575714318</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03279149922942329</v>
+        <v>0.03513349347516003</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2464483421.935109</v>
+        <v>3607956219.345325</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491145899787809</v>
+        <v>0.1468457822294103</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05350107868346712</v>
+        <v>0.04791498751292267</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2244165444.497591</v>
+        <v>2712827682.310334</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1576854456723981</v>
+        <v>0.1496915032436152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01902400535870539</v>
+        <v>0.01667073615928578</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1177538080.162192</v>
+        <v>1152917261.796772</v>
       </c>
       <c r="F87" t="n">
-        <v>0.133529656555629</v>
+        <v>0.1177666856005254</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03892917809839676</v>
+        <v>0.04201500140843006</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3222295372.714623</v>
+        <v>3385079580.795246</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1489245990172722</v>
+        <v>0.1079910729469096</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02762942110460904</v>
+        <v>0.03834989445886219</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3260513984.593989</v>
+        <v>3428947998.920763</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1327162217939478</v>
+        <v>0.09895252015876221</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03998328934088497</v>
+        <v>0.03183574924084713</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2142217915.838608</v>
+        <v>1971050462.570358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.13161725380853</v>
+        <v>0.1273012985114856</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03686335053212582</v>
+        <v>0.04350345453980847</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1553660407.453146</v>
+        <v>1679960148.890507</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1653862145777717</v>
+        <v>0.119456698614419</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04986539596275194</v>
+        <v>0.04649104949880295</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1940673520.679325</v>
+        <v>2650253330.594242</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0850112321981404</v>
+        <v>0.09685775084969225</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03789669447228127</v>
+        <v>0.03966531605795718</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4211770350.283483</v>
+        <v>4787967911.140629</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09691996942769134</v>
+        <v>0.1239836793585856</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04533071231149535</v>
+        <v>0.05153446386312879</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1666398220.152574</v>
+        <v>2216251748.78657</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1598016890744759</v>
+        <v>0.1186648192776222</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03655026576710975</v>
+        <v>0.03853968899463463</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2322779414.788367</v>
+        <v>2291946621.152815</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1296720043490583</v>
+        <v>0.1073328353949174</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0474611492113384</v>
+        <v>0.03613416757047187</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2260740813.755378</v>
+        <v>2070798961.683395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1368587600333266</v>
+        <v>0.08659889574958407</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03524223488654157</v>
+        <v>0.03707422820664716</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3460132606.62282</v>
+        <v>5323374524.149011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1595959605150539</v>
+        <v>0.1132939850610505</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02272170958644822</v>
+        <v>0.02556721556081324</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3770159670.661084</v>
+        <v>2426270357.912294</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1177922853637912</v>
+        <v>0.1284995829592666</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03257995916394971</v>
+        <v>0.02852794289611954</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3084820830.887271</v>
+        <v>3077166997.162322</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1455670499742249</v>
+        <v>0.1456966881127271</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02459245472464405</v>
+        <v>0.0348145537709067</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4421834670.527619</v>
+        <v>3392984754.841963</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1167963045070371</v>
+        <v>0.1406330408929366</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02388373366068017</v>
+        <v>0.01881556101594801</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2882970654.588339</v>
+        <v>3198414004.291009</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1629167876898714</v>
+        <v>0.1422298412186644</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05174705648113608</v>
+        <v>0.0567909201189778</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_456.xlsx
+++ b/output/fit_clients/fit_round_456.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2435779459.117801</v>
+        <v>1622443838.940273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1014540739467799</v>
+        <v>0.100994190380106</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04101152909447985</v>
+        <v>0.03494311462612064</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2382042110.194664</v>
+        <v>1694176870.124415</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525506730976175</v>
+        <v>0.1575887295003526</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03980559979737355</v>
+        <v>0.04099868417033609</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4328756795.737414</v>
+        <v>4751302186.69887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1569298196412643</v>
+        <v>0.1534973372918664</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02688428533992673</v>
+        <v>0.03536248318326617</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>455</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.30744380045847</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3769835777.821926</v>
+        <v>3120040557.075269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09969769033671068</v>
+        <v>0.09641006639621784</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03995169376935188</v>
+        <v>0.03122313497144352</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>192</v>
+      </c>
+      <c r="J5" t="n">
+        <v>455</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.71355960056106</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2508826929.877069</v>
+        <v>2058775564.484218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09903994093582894</v>
+        <v>0.1319871694289976</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05008142486843534</v>
+        <v>0.04542320250767762</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2189221999.033592</v>
+        <v>2343598640.513714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06310492832534913</v>
+        <v>0.06383434685798582</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04871365452478334</v>
+        <v>0.03797485086246622</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3892267301.265969</v>
+        <v>3333464928.103591</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1559091880215577</v>
+        <v>0.2174997971068525</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02725494493654773</v>
+        <v>0.02925999694527123</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>128</v>
+      </c>
+      <c r="J8" t="n">
+        <v>456</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2182878423.152871</v>
+        <v>2136886282.440655</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1980929490053734</v>
+        <v>0.1951480867737539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02380131901341322</v>
+        <v>0.03686952603170914</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4996395577.754619</v>
+        <v>4732102382.724552</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2085760149216352</v>
+        <v>0.1925843269026604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04936521652831794</v>
+        <v>0.04167827215348307</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>353</v>
+      </c>
+      <c r="J10" t="n">
+        <v>455</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32.34270937216832</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4194770514.365073</v>
+        <v>4142218375.902366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.121317590729823</v>
+        <v>0.1736755064010904</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03836193002041536</v>
+        <v>0.04978161119696423</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>189</v>
+      </c>
+      <c r="J11" t="n">
+        <v>456</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40.36744531965541</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3150917148.101184</v>
+        <v>2884374477.438436</v>
       </c>
       <c r="F12" t="n">
-        <v>0.138375606005941</v>
+        <v>0.152618638670121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04199106949985698</v>
+        <v>0.05381259526767177</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4805233640.161552</v>
+        <v>4344459040.808661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08107872094590972</v>
+        <v>0.08739020303046367</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02000911707879191</v>
+        <v>0.02602865764361153</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>237</v>
+      </c>
+      <c r="J13" t="n">
+        <v>455</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33.95383305729606</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2994713337.876529</v>
+        <v>3374869854.456598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1785158979206</v>
+        <v>0.1743246852852626</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03933488706611421</v>
+        <v>0.03944173317117619</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>456</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1828357186.070626</v>
+        <v>1593840004.078862</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07773111600285826</v>
+        <v>0.0776612463454026</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04487785832340459</v>
+        <v>0.02993539656296855</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2711027227.599581</v>
+        <v>2782876933.519433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09575819717778138</v>
+        <v>0.0840728160396623</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04024065886805457</v>
+        <v>0.03927966469887796</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3303830625.077661</v>
+        <v>4306416529.712339</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1683672586657808</v>
+        <v>0.1257447919503298</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03655057390178727</v>
+        <v>0.0380112974680621</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>222</v>
+      </c>
+      <c r="J17" t="n">
+        <v>456</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3526567778.744839</v>
+        <v>2897724875.418057</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1594861930473311</v>
+        <v>0.1618736069159461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03045133630457542</v>
+        <v>0.0319485459690273</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>866527918.7765392</v>
+        <v>866573376.9084131</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1409418234042083</v>
+        <v>0.1632753167346707</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01943913214402487</v>
+        <v>0.02741618152253408</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2625984951.008487</v>
+        <v>2699920213.134214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09779010243954958</v>
+        <v>0.1530079598216984</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01942268506172171</v>
+        <v>0.02937637222684311</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2612715802.256702</v>
+        <v>2578607163.971295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08546065754181704</v>
+        <v>0.1010619201505344</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03699717917864644</v>
+        <v>0.03989466433899403</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3371680570.663838</v>
+        <v>2772735395.105361</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1180574309200472</v>
+        <v>0.1071217047244354</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04370996548216335</v>
+        <v>0.04912417660500919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114096259.074546</v>
+        <v>1319365889.551539</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1496055565686322</v>
+        <v>0.1213897956361355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04051520137571003</v>
+        <v>0.05081050632071007</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2819628428.772292</v>
+        <v>2735460396.197102</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1029167893274646</v>
+        <v>0.09837230724848307</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02457731527362069</v>
+        <v>0.0362394751377823</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>144</v>
+      </c>
+      <c r="J24" t="n">
+        <v>453</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>910971210.6960312</v>
+        <v>1022631073.534905</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1081365568603793</v>
+        <v>0.1075801627645924</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0225249748760476</v>
+        <v>0.01959321156704627</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1401617503.600527</v>
+        <v>1428488801.199181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08820532249816954</v>
+        <v>0.08532168819591929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03669412838338552</v>
+        <v>0.03007876609980716</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3437660351.57188</v>
+        <v>2906446624.941795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1251522433556203</v>
+        <v>0.1012826147512733</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02201160231545772</v>
+        <v>0.01654532856274079</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>199</v>
+      </c>
+      <c r="J27" t="n">
+        <v>455</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.30755754036306</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2933789722.025709</v>
+        <v>2601703522.811342</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09500180637134675</v>
+        <v>0.1415684605826752</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03347297901777859</v>
+        <v>0.03621855503386317</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>111</v>
+      </c>
+      <c r="J28" t="n">
+        <v>455</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.13502084035056</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4848074453.274601</v>
+        <v>4045240117.695692</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09496762254909172</v>
+        <v>0.09606276184285059</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03289561143077211</v>
+        <v>0.04140682253516702</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>369</v>
+      </c>
+      <c r="J29" t="n">
+        <v>455</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.23801242563583</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2192931659.959455</v>
+        <v>1692592616.709813</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1290010197321708</v>
+        <v>0.1238287289040279</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02937961216236928</v>
+        <v>0.03813127248436946</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1452406766.69326</v>
+        <v>990840827.5974663</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09562688208493847</v>
+        <v>0.07624186023608466</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04472744558295921</v>
+        <v>0.04889877613448936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1361879318.002785</v>
+        <v>1473950034.822904</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07329547611180594</v>
+        <v>0.09110416093821787</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03490203574336585</v>
+        <v>0.02737547444709529</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2146097797.168468</v>
+        <v>1975517090.298537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1995808875808454</v>
+        <v>0.2035466250123651</v>
       </c>
       <c r="G33" t="n">
-        <v>0.047560186765558</v>
+        <v>0.05709511789525536</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>999941441.1379058</v>
+        <v>1069501701.552421</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09153088905131988</v>
+        <v>0.1009694086313643</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02651438795193006</v>
+        <v>0.02678482708850093</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>858733714.156924</v>
+        <v>924285515.6586899</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09915437282118439</v>
+        <v>0.09049633930197674</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04400297246306706</v>
+        <v>0.04310914434848417</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3210197551.268874</v>
+        <v>2187354562.648905</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1321113815559434</v>
+        <v>0.1478501618972475</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02225067374251079</v>
+        <v>0.0211045322443145</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1956594282.177907</v>
+        <v>2577607559.773809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0944059090476107</v>
+        <v>0.09689104788301645</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02962731816975611</v>
+        <v>0.02789665051897431</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1359899327.221155</v>
+        <v>2002220597.093078</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09290330621975697</v>
+        <v>0.1104804682705237</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02563120597223079</v>
+        <v>0.0276364165666791</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1923970079.589484</v>
+        <v>1476082754.319874</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1521714888611757</v>
+        <v>0.173278014465564</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02276226325466631</v>
+        <v>0.02556300570263075</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1180182674.01823</v>
+        <v>1371404450.856791</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1162071967223574</v>
+        <v>0.1504441380322647</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0488408885082446</v>
+        <v>0.04554060658470678</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2083406101.464653</v>
+        <v>2248209907.645734</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1307733841927769</v>
+        <v>0.107496724630227</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03971820079002254</v>
+        <v>0.04381871722956131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4295056440.748631</v>
+        <v>3476540451.202897</v>
       </c>
       <c r="F42" t="n">
-        <v>0.116717462968359</v>
+        <v>0.09361894893373424</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04108611283282281</v>
+        <v>0.04017084658005702</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>199</v>
+      </c>
+      <c r="J42" t="n">
+        <v>456</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2715246712.748078</v>
+        <v>2729160473.893347</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1622186804870249</v>
+        <v>0.1849806843809117</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02565165385628119</v>
+        <v>0.02425294974075227</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1433715070.745326</v>
+        <v>1891580043.583493</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07585767503172047</v>
+        <v>0.06398665867180453</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02886776676358248</v>
+        <v>0.02551747016201061</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1842412813.244822</v>
+        <v>1845430784.041244</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1889952484834925</v>
+        <v>0.1764172402327989</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04853730794594577</v>
+        <v>0.04448413343457087</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5302363575.647157</v>
+        <v>5356784696.884714</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740671580160507</v>
+        <v>0.1789117634749101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05868068576431945</v>
+        <v>0.05896835045198296</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>270</v>
+      </c>
+      <c r="J46" t="n">
+        <v>456</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4920876072.330379</v>
+        <v>3153107307.038353</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1988654843195805</v>
+        <v>0.1994730350726603</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04465096286070339</v>
+        <v>0.04398736577435451</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>205</v>
+      </c>
+      <c r="J47" t="n">
+        <v>453</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3253687602.556496</v>
+        <v>3039638647.904413</v>
       </c>
       <c r="F48" t="n">
-        <v>0.103715927629531</v>
+        <v>0.07884788623836249</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02940869788856581</v>
+        <v>0.03703647468675218</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1688376499.468144</v>
+        <v>1915962625.05309</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1555844613110757</v>
+        <v>0.1302113871311436</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04003847963147202</v>
+        <v>0.03976801739010611</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3939725324.732858</v>
+        <v>4130471640.763389</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1754329464349667</v>
+        <v>0.1290024588243572</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05139098820500632</v>
+        <v>0.03338085564914174</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>162</v>
+      </c>
+      <c r="J50" t="n">
+        <v>456</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1194688631.068269</v>
+        <v>1305042205.524383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1433959370797018</v>
+        <v>0.1476488724811957</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0541412649788304</v>
+        <v>0.03454595713518859</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3206107861.801679</v>
+        <v>4584396994.851417</v>
       </c>
       <c r="F52" t="n">
-        <v>0.110752668849222</v>
+        <v>0.1196686591958234</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04279611166265129</v>
+        <v>0.05479652441885552</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>259</v>
+      </c>
+      <c r="J52" t="n">
+        <v>455</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.38387129452097</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2816077192.899018</v>
+        <v>3560918980.69167</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1890780173566458</v>
+        <v>0.1861701872352613</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03405924096288977</v>
+        <v>0.02747498919649248</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>69</v>
+      </c>
+      <c r="J53" t="n">
+        <v>456</v>
+      </c>
+      <c r="K53" t="n">
+        <v>52.64848619031632</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3975948105.835481</v>
+        <v>3865308603.599494</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1212798701582279</v>
+        <v>0.1507464271396607</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04331236474692721</v>
+        <v>0.04906565198584052</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>241</v>
+      </c>
+      <c r="J54" t="n">
+        <v>456</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35.23794499195877</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3152886403.096658</v>
+        <v>4903646647.950168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1895412687131809</v>
+        <v>0.1924251208605136</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02308559326540926</v>
+        <v>0.02110279925621171</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>226</v>
+      </c>
+      <c r="J55" t="n">
+        <v>456</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1689276513.026745</v>
+        <v>1673760850.024648</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1354823285874166</v>
+        <v>0.1565753000746115</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05524291006050213</v>
+        <v>0.0356572749318142</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3930596093.915098</v>
+        <v>3279308776.945114</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1110601570550151</v>
+        <v>0.1119045043970932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02176296548568847</v>
+        <v>0.02450542876256393</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1797258546.240659</v>
+        <v>1420047169.929225</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1516140102860373</v>
+        <v>0.1501587448315783</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02603631321072164</v>
+        <v>0.03878460014278814</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4754137007.327508</v>
+        <v>3588238358.924495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09989825562640312</v>
+        <v>0.1084980075002339</v>
       </c>
       <c r="G59" t="n">
-        <v>0.037128713796469</v>
+        <v>0.04528531627109803</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>223</v>
+      </c>
+      <c r="J59" t="n">
+        <v>456</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2651490884.369843</v>
+        <v>2377497689.470902</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150150979304407</v>
+        <v>0.1536645389923155</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0280786988347317</v>
+        <v>0.02947140501150279</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2695227475.661661</v>
+        <v>2215323514.545557</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1266461074883553</v>
+        <v>0.177463636175691</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02865034025941622</v>
+        <v>0.02413855676583786</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1941564515.061045</v>
+        <v>1620854016.654092</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1344790878363415</v>
+        <v>0.1512137738727921</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04508969448114589</v>
+        <v>0.03155087640916055</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3681385199.446134</v>
+        <v>4538390540.345382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1015036368619282</v>
+        <v>0.06670732974913035</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03904430433474709</v>
+        <v>0.03471277144039221</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>228</v>
+      </c>
+      <c r="J63" t="n">
+        <v>456</v>
+      </c>
+      <c r="K63" t="n">
+        <v>35.87954651326815</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4135334985.146399</v>
+        <v>4090339823.968385</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116932322387782</v>
+        <v>0.1250213095792667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03268153706414737</v>
+        <v>0.02574082437335393</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>228</v>
+      </c>
+      <c r="J64" t="n">
+        <v>456</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4886116591.906798</v>
+        <v>5367094684.564305</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1244685678569985</v>
+        <v>0.1447123626852285</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0243058364661908</v>
+        <v>0.02107800312695695</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>325</v>
+      </c>
+      <c r="J65" t="n">
+        <v>456</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5510007532.86776</v>
+        <v>3907381413.871551</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1610140950936945</v>
+        <v>0.1538169043709685</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03845240279919086</v>
+        <v>0.04791623189609077</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>225</v>
+      </c>
+      <c r="J66" t="n">
+        <v>455</v>
+      </c>
+      <c r="K66" t="n">
+        <v>33.82850219870428</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2796,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3328035205.91658</v>
+        <v>3221397631.775784</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09639759723932564</v>
+        <v>0.08557726252554115</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04366523372852875</v>
+        <v>0.03631722571203928</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65.87671422070517</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4220967724.738159</v>
+        <v>6088796544.761173</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1385495512126679</v>
+        <v>0.1002224790058235</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03758235583242961</v>
+        <v>0.04967384387350348</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>248</v>
+      </c>
+      <c r="J68" t="n">
+        <v>455</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32.20781410950683</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1511763694.891825</v>
+        <v>1833890845.663324</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1605872063573402</v>
+        <v>0.1498926519501896</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05542757640919788</v>
+        <v>0.05711264052816633</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2795285924.85941</v>
+        <v>2508015919.030065</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07645068775628272</v>
+        <v>0.07627347658388532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03916572901780132</v>
+        <v>0.03769525531939397</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4933218414.578756</v>
+        <v>5400843795.999042</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1222268897583376</v>
+        <v>0.1436647827545598</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02342099468216586</v>
+        <v>0.03224391530516271</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>311</v>
+      </c>
+      <c r="J71" t="n">
+        <v>456</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1818166746.392751</v>
+        <v>2098378478.215466</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09153420829400745</v>
+        <v>0.1015508336621799</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05225863118961187</v>
+        <v>0.03442953265281809</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2741966189.377736</v>
+        <v>2279184600.973579</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1092091851899198</v>
+        <v>0.08169953367357578</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03822611145805112</v>
+        <v>0.03437215178476816</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3202623275.118027</v>
+        <v>3233489486.999111</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1178504582603177</v>
+        <v>0.1557173909416618</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02361697256853619</v>
+        <v>0.03405210416181544</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>133</v>
+      </c>
+      <c r="J74" t="n">
+        <v>455</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.87412270586034</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2247965392.576332</v>
+        <v>2226695311.403067</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1450702522484574</v>
+        <v>0.1097906069462946</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0352745547854286</v>
+        <v>0.02387098033371959</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4012474001.051737</v>
+        <v>3840845158.12507</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1192230689866076</v>
+        <v>0.09450750674118859</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02224886676406208</v>
+        <v>0.02971378573313255</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>218</v>
+      </c>
+      <c r="J76" t="n">
+        <v>455</v>
+      </c>
+      <c r="K76" t="n">
+        <v>32.7799929027867</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2010068320.452141</v>
+        <v>1721578515.178638</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1453690496824165</v>
+        <v>0.1482437638597915</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02587167738402833</v>
+        <v>0.02069312448263675</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4788392633.100833</v>
+        <v>3515754220.041054</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1296579735664825</v>
+        <v>0.129812306578238</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04702327697800652</v>
+        <v>0.04737023943485755</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>227</v>
+      </c>
+      <c r="J78" t="n">
+        <v>456</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1871079721.165809</v>
+        <v>1760992284.135241</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1086793995440574</v>
+        <v>0.1385272200368685</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03776864221540636</v>
+        <v>0.02752231497411355</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4727007600.663517</v>
+        <v>3429571079.63722</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1021244260710789</v>
+        <v>0.06749223097583124</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02346768374152245</v>
+        <v>0.03680555311139795</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>222</v>
+      </c>
+      <c r="J80" t="n">
+        <v>456</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3688907189.174457</v>
+        <v>4789953763.545753</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0895100753467049</v>
+        <v>0.1153561326052097</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02725343958552074</v>
+        <v>0.02597134253086729</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>212</v>
+      </c>
+      <c r="J81" t="n">
+        <v>456</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3608737864.84435</v>
+        <v>5140071768.143722</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1331010494869159</v>
+        <v>0.1862870977019705</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02022735433880344</v>
+        <v>0.01785959169207332</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>303</v>
+      </c>
+      <c r="J82" t="n">
+        <v>455</v>
+      </c>
+      <c r="K82" t="n">
+        <v>33.86159908993906</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2374566400.485881</v>
+        <v>1810405190.927666</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1566365459635363</v>
+        <v>0.1380510099293416</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02947876984918823</v>
+        <v>0.03091010710330053</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2115813020.111997</v>
+        <v>2316181996.24478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09591782575714318</v>
+        <v>0.08888413667581313</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03513349347516003</v>
+        <v>0.04583994374091072</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3607956219.345325</v>
+        <v>3124736730.447375</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1468457822294103</v>
+        <v>0.1341404352613338</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04791498751292267</v>
+        <v>0.04136336011635451</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2712827682.310334</v>
+        <v>1792000089.647796</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1496915032436152</v>
+        <v>0.1629366702820226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01667073615928578</v>
+        <v>0.01940552688667674</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1152917261.796772</v>
+        <v>1034717122.729867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1177666856005254</v>
+        <v>0.1462728060390434</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04201500140843006</v>
+        <v>0.03230454636205869</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3385079580.795246</v>
+        <v>2349502210.323151</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1079910729469096</v>
+        <v>0.1173791747476917</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03834989445886219</v>
+        <v>0.02708385211221009</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3428947998.920763</v>
+        <v>2266191245.693414</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09895252015876221</v>
+        <v>0.1180015060084325</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03183574924084713</v>
+        <v>0.0374297629236225</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1971050462.570358</v>
+        <v>1730713930.313783</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1273012985114856</v>
+        <v>0.08457989657891035</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04350345453980847</v>
+        <v>0.03761846827258639</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1679960148.890507</v>
+        <v>1277971736.174068</v>
       </c>
       <c r="F91" t="n">
-        <v>0.119456698614419</v>
+        <v>0.1312875792217952</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04649104949880295</v>
+        <v>0.05363273805044282</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2650253330.594242</v>
+        <v>2727468933.346533</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09685775084969225</v>
+        <v>0.0961487384383468</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03966531605795718</v>
+        <v>0.04399704200411638</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4787967911.140629</v>
+        <v>3535402097.529699</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1239836793585856</v>
+        <v>0.1067096440634783</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05153446386312879</v>
+        <v>0.05389197806261939</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>219</v>
+      </c>
+      <c r="J93" t="n">
+        <v>455</v>
+      </c>
+      <c r="K93" t="n">
+        <v>28.26689451917188</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2216251748.78657</v>
+        <v>2388201375.324881</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1186648192776222</v>
+        <v>0.164835074906148</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03853968899463463</v>
+        <v>0.03626610108536611</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2291946621.152815</v>
+        <v>2532460116.515588</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1073328353949174</v>
+        <v>0.1262619528146427</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03613416757047187</v>
+        <v>0.03618608047401144</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2070798961.683395</v>
+        <v>1631930717.996124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08659889574958407</v>
+        <v>0.1067580625614804</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03707422820664716</v>
+        <v>0.03358795510894053</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5323374524.149011</v>
+        <v>3816894284.055755</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1132939850610505</v>
+        <v>0.116193652424572</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02556721556081324</v>
+        <v>0.02108300950137672</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>238</v>
+      </c>
+      <c r="J97" t="n">
+        <v>455</v>
+      </c>
+      <c r="K97" t="n">
+        <v>32.6884154439323</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2426270357.912294</v>
+        <v>3802650989.513457</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1284995829592666</v>
+        <v>0.08404484441255743</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02852794289611954</v>
+        <v>0.02337550332941314</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>456</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3077166997.162322</v>
+        <v>2447641857.974365</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1456966881127271</v>
+        <v>0.1221010455344019</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0348145537709067</v>
+        <v>0.02495736747402463</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3392984754.841963</v>
+        <v>3081399402.335175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1406330408929366</v>
+        <v>0.1263892119698828</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01881556101594801</v>
+        <v>0.02618967786755085</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>212</v>
+      </c>
+      <c r="J100" t="n">
+        <v>454</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3198414004.291009</v>
+        <v>3012758748.787908</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1422298412186644</v>
+        <v>0.2004637940416598</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0567909201189778</v>
+        <v>0.05557154283083132</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
